--- a/external/PerfDiv.xlsx
+++ b/external/PerfDiv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Desktop\Coding\Filling SIMD gaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFACBC94-BCD3-48AA-BDC9-FD62E78CA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08480290-13E8-4E61-B543-62963D4F6843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{395B90C2-E5A1-4B1B-8B08-7B8CE154B6A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>GCC</t>
   </si>
@@ -120,13 +120,19 @@
   </si>
   <si>
     <t>Modulo u32-bit</t>
+  </si>
+  <si>
+    <t>Haswell</t>
+  </si>
+  <si>
+    <t>Alder L.-N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +148,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +199,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -233,17 +276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
@@ -292,46 +324,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,28 +433,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -689,52 +791,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0081CB9-D5CB-4347-8A8C-5099AF4A23F5}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="3" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="H1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="H2" s="16" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -751,12 +863,17 @@
       <c r="F3" s="7">
         <v>7.93</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="11">
+        <v>6.91</v>
+      </c>
+      <c r="I3" s="17">
+        <v>6.41</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -773,8 +890,14 @@
       <c r="F4" s="7">
         <v>17.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="12">
+        <v>18.89</v>
+      </c>
+      <c r="I4" s="6">
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -791,8 +914,14 @@
       <c r="F5" s="7">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="12">
+        <v>4.62</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -809,8 +938,14 @@
       <c r="F6" s="7">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="12">
+        <v>3.95</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -827,8 +962,14 @@
       <c r="F7" s="7">
         <v>9.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="13">
+        <v>6.62</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -845,18 +986,27 @@
       <c r="F8" s="7">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -873,8 +1023,14 @@
       <c r="F10" s="7">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -891,18 +1047,27 @@
       <c r="F11" s="7">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -919,8 +1084,14 @@
       <c r="F13" s="7">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <v>4.08</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -937,8 +1108,14 @@
       <c r="F14" s="7">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <v>5.72</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -955,8 +1132,14 @@
       <c r="F15" s="7">
         <v>17.850000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <v>19.03</v>
+      </c>
+      <c r="I15" s="6">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>11</v>
@@ -973,18 +1156,27 @@
       <c r="F16" s="7">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="H16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>4</v>
@@ -1001,8 +1193,14 @@
       <c r="F18" s="7">
         <v>20.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="6">
+        <v>13.25</v>
+      </c>
+      <c r="I18" s="6">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -1019,8 +1217,14 @@
       <c r="F19" s="7">
         <v>7.74</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="6">
+        <v>14.41</v>
+      </c>
+      <c r="I19" s="6">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -1037,8 +1241,14 @@
       <c r="F20" s="7">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="I20" s="6">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>6</v>
@@ -1055,8 +1265,14 @@
       <c r="F21" s="7">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="6">
+        <v>2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -1073,8 +1289,14 @@
       <c r="F22" s="7">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
         <v>14</v>
@@ -1091,8 +1313,14 @@
       <c r="F23" s="7">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>11</v>
@@ -1109,18 +1337,27 @@
       <c r="F24" s="7">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="H24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -1137,8 +1374,14 @@
       <c r="F26" s="7">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
         <v>11</v>
@@ -1155,18 +1398,27 @@
       <c r="F27" s="7">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="H27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
@@ -1183,8 +1435,14 @@
       <c r="F29" s="7">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="12">
+        <v>7.69</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>13</v>
@@ -1201,8 +1459,14 @@
       <c r="F30" s="7">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="12">
+        <v>7.58</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
@@ -1219,26 +1483,39 @@
       <c r="F31" s="7">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="12">
+        <v>4.33</v>
+      </c>
+      <c r="I31" s="6">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="29">
         <v>3.63</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="29">
         <v>3.73</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="29">
         <v>4.03</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="30">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="31"/>
+      <c r="H32" s="32">
+        <v>3.98</v>
+      </c>
+      <c r="I32" s="29">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>11</v>
@@ -1255,18 +1532,27 @@
       <c r="F33" s="7">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="H33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -1283,8 +1569,14 @@
       <c r="F35" s="7">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="11">
+        <v>3.92</v>
+      </c>
+      <c r="I35" s="6">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>11</v>
@@ -1301,20 +1593,29 @@
       <c r="F36" s="7">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="H36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="6">
@@ -1329,10 +1630,16 @@
       <c r="F38" s="7">
         <v>5.71</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="11">
+        <v>7.69</v>
+      </c>
+      <c r="I38" s="6">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="6">
@@ -1347,28 +1654,41 @@
       <c r="F39" s="7">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="12">
+        <v>7.42</v>
+      </c>
+      <c r="I39" s="6">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="29">
         <v>4.71</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="33">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="29">
         <v>5.45</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="30">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="31"/>
+      <c r="H40" s="32">
+        <v>4.51</v>
+      </c>
+      <c r="I40" s="29">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="23" t="s">
+      <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -1383,18 +1703,27 @@
       <c r="F41" s="7">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="H41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
         <v>5</v>
@@ -1411,8 +1740,14 @@
       <c r="F43" s="7">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="11">
+        <v>7.31</v>
+      </c>
+      <c r="I43" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
@@ -1429,8 +1764,14 @@
       <c r="F44" s="7">
         <v>4.08</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="12">
+        <v>5.19</v>
+      </c>
+      <c r="I44" s="6">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
         <v>26</v>
@@ -1447,8 +1788,14 @@
       <c r="F45" s="7">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="12">
+        <v>8.25</v>
+      </c>
+      <c r="I45" s="6">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
         <v>11</v>
@@ -1465,18 +1812,27 @@
       <c r="F46" s="7">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="H46" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
         <v>5</v>
@@ -1493,8 +1849,14 @@
       <c r="F48" s="7">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="11">
+        <v>8.36</v>
+      </c>
+      <c r="I48" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="s">
         <v>11</v>
@@ -1511,24 +1873,30 @@
       <c r="F49" s="9">
         <v>4.5199999999999996</v>
       </c>
+      <c r="H49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H2:K3"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A37:I37"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:E11">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1540,6 +1908,186 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:E24">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:E33">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:E36">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:E49">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:F8 I8">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:F11 I11">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F16 I13:I16 I18:I23 I26">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:F24 I24">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:F27 I27">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:F33 I29:I33 I35">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:F36 I36">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:F41 I41">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:F46 I46">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:F49 I49">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1551,43 +2099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:E24">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:E27">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:E33">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E36">
+  <conditionalFormatting sqref="H3:H8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1599,7 +2111,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:E49">
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1611,19 +2135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:F8">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F11">
+  <conditionalFormatting sqref="H18:H24">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1635,7 +2147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F16">
+  <conditionalFormatting sqref="H26:H27">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1647,7 +2159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:F24">
+  <conditionalFormatting sqref="H29:H33">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1659,7 +2171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:F27">
+  <conditionalFormatting sqref="H35:H36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1671,7 +2183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:F33">
+  <conditionalFormatting sqref="H38:H41">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1683,7 +2195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:F36">
+  <conditionalFormatting sqref="H43:H46">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1695,7 +2207,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:F49">
+  <conditionalFormatting sqref="H48:H49">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I7 I10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1707,7 +2231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:F46">
+  <conditionalFormatting sqref="I38:I40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1719,7 +2243,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:F41">
+  <conditionalFormatting sqref="I43:I46">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
